--- a/table_k_polinoms.xlsx
+++ b/table_k_polinoms.xlsx
@@ -14,102 +14,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>channel_1</t>
-  </si>
-  <si>
-    <t>channel_2</t>
-  </si>
-  <si>
-    <t>channel_3</t>
-  </si>
-  <si>
-    <t>channel_4</t>
-  </si>
-  <si>
-    <t>channel_5</t>
-  </si>
-  <si>
-    <t>channel_6</t>
-  </si>
-  <si>
-    <t>channel_7</t>
-  </si>
-  <si>
-    <t>channel_8</t>
-  </si>
-  <si>
-    <t>channel_9</t>
-  </si>
-  <si>
-    <t>channel_10</t>
-  </si>
-  <si>
-    <t>channel_11</t>
-  </si>
-  <si>
-    <t>channel_12</t>
-  </si>
-  <si>
-    <t>channel_13</t>
-  </si>
-  <si>
-    <t>channel_14</t>
-  </si>
-  <si>
-    <t>channel_15</t>
-  </si>
-  <si>
-    <t>channel_16</t>
-  </si>
-  <si>
-    <t>channel_17</t>
-  </si>
-  <si>
-    <t>channel_18</t>
-  </si>
-  <si>
-    <t>channel_19</t>
-  </si>
-  <si>
-    <t>channel_20</t>
-  </si>
-  <si>
-    <t>channel_21</t>
-  </si>
-  <si>
-    <t>channel_22</t>
-  </si>
-  <si>
-    <t>channel_23</t>
-  </si>
-  <si>
-    <t>channel_24</t>
-  </si>
-  <si>
-    <t>channel_25</t>
-  </si>
-  <si>
-    <t>channel_26</t>
-  </si>
-  <si>
-    <t>channel_27</t>
-  </si>
-  <si>
-    <t>channel_28</t>
-  </si>
-  <si>
-    <t>channel_29</t>
-  </si>
-  <si>
-    <t>channel_30</t>
-  </si>
-  <si>
-    <t>channel_31</t>
-  </si>
-  <si>
-    <t>channel_32</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>channel_k1_ch_0</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_1</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_2</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_3</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_4</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_5</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_6</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_7</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_8</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_9</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_10</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_11</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_12</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_13</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_14</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_15</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_16</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_17</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_18</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_19</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_20</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_21</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_22</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_23</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_24</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_25</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_26</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_27</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_28</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_29</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_30</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_31</t>
+  </si>
+  <si>
+    <t>channel_k1_ch_32</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_0</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_1</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_2</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_3</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_4</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_5</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_6</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_7</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_8</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_9</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_10</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_11</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_12</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_13</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_14</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_15</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_16</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_17</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_18</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_19</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_20</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_21</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_22</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_23</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_24</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_25</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_26</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_27</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_28</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_29</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_30</t>
+  </si>
+  <si>
+    <t>channel_k2_ch_31</t>
   </si>
   <si>
     <t>a</t>
@@ -479,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:BN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:66">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,409 +681,904 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:66">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>-4.103535855356207E-05</v>
+        <v>-2.604166022574711E-05</v>
       </c>
       <c r="C2">
-        <v>-4.103535929579361E-05</v>
+        <v>-2.761995130299491E-05</v>
       </c>
       <c r="D2">
-        <v>-4.182449902971148E-05</v>
+        <v>-2.604166022574711E-05</v>
       </c>
       <c r="E2">
-        <v>-4.971590899341518E-05</v>
+        <v>-3.03819429439573E-05</v>
       </c>
       <c r="F2">
-        <v>-4.537563071018641E-05</v>
+        <v>-2.840909373280659E-05</v>
       </c>
       <c r="G2">
-        <v>-3.708964824525114E-05</v>
+        <v>-3.314393918725214E-05</v>
       </c>
       <c r="H2">
-        <v>-4.024621385815069E-05</v>
+        <v>-3.03819429439573E-05</v>
       </c>
       <c r="I2">
-        <v>-4.379734947068666E-05</v>
+        <v>-3.590593618290084E-05</v>
       </c>
       <c r="J2">
-        <v>-4.89267684221564E-05</v>
+        <v>-3.03819429439573E-05</v>
       </c>
       <c r="K2">
-        <v>-5.208333450775931E-05</v>
+        <v>-3.314393918725219E-05</v>
       </c>
       <c r="L2">
-        <v>-4.379734982923944E-05</v>
+        <v>-3.03819429439573E-05</v>
       </c>
       <c r="M2">
-        <v>-4.379734993266219E-05</v>
+        <v>-2.880366347258388E-05</v>
       </c>
       <c r="N2">
-        <v>-3.748421788408189E-05</v>
+        <v>-3.038194497124341E-05</v>
       </c>
       <c r="O2">
-        <v>-4.02462127550752E-05</v>
+        <v>-2.761994932979062E-05</v>
       </c>
       <c r="P2">
-        <v>-3.748421828806364E-05</v>
+        <v>-3.038194294395732E-05</v>
       </c>
       <c r="Q2">
-        <v>-5.642360763444144E-05</v>
+        <v>-3.669507765231889E-05</v>
       </c>
       <c r="R2">
-        <v>-4.89267684221564E-05</v>
+        <v>-3.03819429439573E-05</v>
       </c>
       <c r="S2">
-        <v>-4.932133860556281E-05</v>
+        <v>-2.288510267193382E-05</v>
       </c>
       <c r="T2">
-        <v>-5.602904232477641E-05</v>
+        <v>-3.235480180266118E-05</v>
       </c>
       <c r="U2">
-        <v>-4.81376265558939E-05</v>
+        <v>-3.314393918725219E-05</v>
       </c>
       <c r="V2">
-        <v>-4.379734982923944E-05</v>
+        <v>-3.03819429439573E-05</v>
       </c>
       <c r="W2">
-        <v>6.668245011337222E-05</v>
+        <v>-3.117108011242393E-05</v>
       </c>
       <c r="X2">
-        <v>-4.853220027952729E-05</v>
+        <v>-2.959280139074531E-05</v>
       </c>
       <c r="Y2">
-        <v>-4.300820428203734E-05</v>
+        <v>-3.590593618290084E-05</v>
       </c>
       <c r="Z2">
-        <v>-4.73484838430759E-05</v>
+        <v>-3.235480180266118E-05</v>
       </c>
       <c r="AA2">
-        <v>-4.57702049772691E-05</v>
+        <v>-2.801452156966078E-05</v>
       </c>
       <c r="AB2">
-        <v>-4.103535923793101E-05</v>
+        <v>-2.761994932979062E-05</v>
       </c>
       <c r="AC2">
-        <v>-5.287246892728888E-05</v>
+        <v>-3.393308308645391E-05</v>
       </c>
       <c r="AD2">
-        <v>-4.182449457289539E-05</v>
+        <v>-3.235480180266118E-05</v>
       </c>
       <c r="AE2">
-        <v>-4.300820310710208E-05</v>
+        <v>-3.077651288257367E-05</v>
       </c>
       <c r="AF2">
-        <v>-4.103535855356207E-05</v>
+        <v>-2.604166022574711E-05</v>
       </c>
       <c r="AG2">
-        <v>-4.300820428203734E-05</v>
+        <v>-2.60416676001497E-05</v>
+      </c>
+      <c r="AH2">
+        <v>-2.180700064968732E-12</v>
+      </c>
+      <c r="AI2">
+        <v>-2.761994932979062E-05</v>
+      </c>
+      <c r="AJ2">
+        <v>-3.03819429439573E-05</v>
+      </c>
+      <c r="AK2">
+        <v>-2.761994932979062E-05</v>
+      </c>
+      <c r="AL2">
+        <v>-2.761994663980073E-05</v>
+      </c>
+      <c r="AM2">
+        <v>-2.761994932979058E-05</v>
+      </c>
+      <c r="AN2">
+        <v>-3.03819429439573E-05</v>
+      </c>
+      <c r="AO2">
+        <v>-2.761994663980073E-05</v>
+      </c>
+      <c r="AP2">
+        <v>-2.130681808629468E-05</v>
+      </c>
+      <c r="AQ2">
+        <v>-2.959280015541158E-05</v>
+      </c>
+      <c r="AR2">
+        <v>-3.038194497124362E-05</v>
+      </c>
+      <c r="AS2">
+        <v>-2.761994932979062E-05</v>
+      </c>
+      <c r="AT2">
+        <v>-2.761994932979062E-05</v>
+      </c>
+      <c r="AU2">
+        <v>-2.604166365388448E-05</v>
+      </c>
+      <c r="AV2">
+        <v>-2.761994932979058E-05</v>
+      </c>
+      <c r="AW2">
+        <v>-2.485795851070943E-05</v>
+      </c>
+      <c r="AX2">
+        <v>-3.393308308645391E-05</v>
+      </c>
+      <c r="AY2">
+        <v>-3.077651288257367E-05</v>
+      </c>
+      <c r="AZ2">
+        <v>-2.01231087313056E-05</v>
+      </c>
+      <c r="BA2">
+        <v>-2.761994932979058E-05</v>
+      </c>
+      <c r="BB2">
+        <v>-2.761994636845955E-05</v>
+      </c>
+      <c r="BC2">
+        <v>-2.761994932979062E-05</v>
+      </c>
+      <c r="BD2">
+        <v>-3.03819448897801E-05</v>
+      </c>
+      <c r="BE2">
+        <v>-2.722537775572969E-05</v>
+      </c>
+      <c r="BF2">
+        <v>-2.604166332815903E-05</v>
+      </c>
+      <c r="BG2">
+        <v>-3.038194470155277E-05</v>
+      </c>
+      <c r="BH2">
+        <v>-2.761994932979062E-05</v>
+      </c>
+      <c r="BI2">
+        <v>-2.130681808629468E-05</v>
+      </c>
+      <c r="BJ2">
+        <v>-3.393308308645385E-05</v>
+      </c>
+      <c r="BK2">
+        <v>-3.117108456382148E-05</v>
+      </c>
+      <c r="BL2">
+        <v>-2.604166560526103E-05</v>
+      </c>
+      <c r="BM2">
+        <v>-2.761994932979062E-05</v>
+      </c>
+      <c r="BN2">
+        <v>-2.683080761288293E-05</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:66">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>0.00258725673810047</v>
+        <v>0.001666666352579789</v>
       </c>
       <c r="C3">
-        <v>0.002624459156074914</v>
+        <v>0.001720102901715863</v>
       </c>
       <c r="D3">
-        <v>0.002640016430711071</v>
+        <v>0.001666666352579789</v>
       </c>
       <c r="E3">
-        <v>0.003070887437343484</v>
+        <v>0.00187872016155057</v>
       </c>
       <c r="F3">
-        <v>0.00288115527435965</v>
+        <v>0.001787743641422509</v>
       </c>
       <c r="G3">
-        <v>0.002405303118498906</v>
+        <v>0.002037337652111184</v>
       </c>
       <c r="H3">
-        <v>0.002556818266281128</v>
+        <v>0.00187872016155057</v>
       </c>
       <c r="I3">
-        <v>0.002760754916906813</v>
+        <v>0.002195955177706011</v>
       </c>
       <c r="J3">
-        <v>0.003010687264098445</v>
+        <v>0.00187872016155057</v>
       </c>
       <c r="K3">
-        <v>0.003206845295208449</v>
+        <v>0.002037337652111186</v>
       </c>
       <c r="L3">
-        <v>0.002730993030608499</v>
+        <v>0.00187872016155057</v>
       </c>
       <c r="M3">
-        <v>0.002708671605920806</v>
+        <v>0.001810403229294811</v>
       </c>
       <c r="N3">
-        <v>0.00239820079107526</v>
+        <v>0.001878720263238055</v>
       </c>
       <c r="O3">
-        <v>0.002504734876987301</v>
+        <v>0.001720102808088113</v>
       </c>
       <c r="P3">
-        <v>0.002383319858739349</v>
+        <v>0.001878720161550571</v>
       </c>
       <c r="Q3">
-        <v>0.003485862927458677</v>
+        <v>0.002278476827882178</v>
       </c>
       <c r="R3">
-        <v>0.003010687264098445</v>
+        <v>0.00187872016155057</v>
       </c>
       <c r="S3">
-        <v>0.00304078734636329</v>
+        <v>0.001500270648679201</v>
       </c>
       <c r="T3">
-        <v>0.003388798790881786</v>
+        <v>0.001999459058371963</v>
       </c>
       <c r="U3">
-        <v>0.003024891788385998</v>
+        <v>0.002037337652111186</v>
       </c>
       <c r="V3">
-        <v>0.002730993030608499</v>
+        <v>0.00187872016155057</v>
       </c>
       <c r="W3">
-        <v>-0.000749120704519847</v>
+        <v>0.002028205882398651</v>
       </c>
       <c r="X3">
-        <v>0.003032670624542383</v>
+        <v>0.00189292470485101</v>
       </c>
       <c r="Y3">
-        <v>0.00266335213822912</v>
+        <v>0.002195955177706011</v>
       </c>
       <c r="Z3">
-        <v>0.002987012933967368</v>
+        <v>0.001999459058371963</v>
       </c>
       <c r="AA3">
-        <v>0.002821969843492294</v>
+        <v>0.001765083944965924</v>
       </c>
       <c r="AB3">
-        <v>0.002564935344165303</v>
+        <v>0.001720102808088113</v>
       </c>
       <c r="AC3">
-        <v>0.003304247549272132</v>
+        <v>0.002119859419509409</v>
       </c>
       <c r="AD3">
-        <v>0.002744182877469329</v>
+        <v>0.001999459058371963</v>
       </c>
       <c r="AE3">
-        <v>0.002678233033000788</v>
+        <v>0.001886498809343957</v>
       </c>
       <c r="AF3">
-        <v>0.00258725673810047</v>
+        <v>0.001666666352579789</v>
       </c>
       <c r="AG3">
-        <v>0.00266335213822912</v>
+        <v>0.00167410718943737</v>
+      </c>
+      <c r="AH3">
+        <v>-2.19602114270856E-12</v>
+      </c>
+      <c r="AI3">
+        <v>0.001720102808088113</v>
+      </c>
+      <c r="AJ3">
+        <v>0.00187872016155057</v>
+      </c>
+      <c r="AK3">
+        <v>0.001720102808088113</v>
+      </c>
+      <c r="AL3">
+        <v>0.001772186004484006</v>
+      </c>
+      <c r="AM3">
+        <v>0.001720102808088111</v>
+      </c>
+      <c r="AN3">
+        <v>0.00187872016155057</v>
+      </c>
+      <c r="AO3">
+        <v>0.001772186004484006</v>
+      </c>
+      <c r="AP3">
+        <v>0.001417072504857095</v>
+      </c>
+      <c r="AQ3">
+        <v>0.001811079405074614</v>
+      </c>
+      <c r="AR3">
+        <v>0.001878720263238065</v>
+      </c>
+      <c r="AS3">
+        <v>0.001720102808088113</v>
+      </c>
+      <c r="AT3">
+        <v>0.001720102808088113</v>
+      </c>
+      <c r="AU3">
+        <v>0.001599702234572457</v>
+      </c>
+      <c r="AV3">
+        <v>0.001720102808088111</v>
+      </c>
+      <c r="AW3">
+        <v>0.001561485582087461</v>
+      </c>
+      <c r="AX3">
+        <v>0.002119859419509409</v>
+      </c>
+      <c r="AY3">
+        <v>0.001886498809343957</v>
+      </c>
+      <c r="AZ3">
+        <v>0.001341653270158693</v>
+      </c>
+      <c r="BA3">
+        <v>0.001720102808088111</v>
+      </c>
+      <c r="BB3">
+        <v>0.001757305042205192</v>
+      </c>
+      <c r="BC3">
+        <v>0.001720102808088113</v>
+      </c>
+      <c r="BD3">
+        <v>0.001968005970901983</v>
+      </c>
+      <c r="BE3">
+        <v>0.001727205033131076</v>
+      </c>
+      <c r="BF3">
+        <v>0.00163690459912164</v>
+      </c>
+      <c r="BG3">
+        <v>0.001893601201576009</v>
+      </c>
+      <c r="BH3">
+        <v>0.001720102808088113</v>
+      </c>
+      <c r="BI3">
+        <v>0.001417072504857095</v>
+      </c>
+      <c r="BJ3">
+        <v>0.002119859419509406</v>
+      </c>
+      <c r="BK3">
+        <v>0.001961241819359948</v>
+      </c>
+      <c r="BL3">
+        <v>0.001651785668340225</v>
+      </c>
+      <c r="BM3">
+        <v>0.001720102808088113</v>
+      </c>
+      <c r="BN3">
+        <v>0.001682224007450973</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:66">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>-0.05169192242766992</v>
+        <v>-0.03382440060601214</v>
       </c>
       <c r="C4">
-        <v>-0.05288239912274612</v>
+        <v>-0.03402913174401787</v>
       </c>
       <c r="D4">
-        <v>-0.05253833229204787</v>
+        <v>-0.03382440060601214</v>
       </c>
       <c r="E4">
-        <v>-0.05945481583166371</v>
+        <v>-0.03678323304295838</v>
       </c>
       <c r="F4">
-        <v>-0.05786503390612091</v>
+        <v>-0.0358279238093677</v>
       </c>
       <c r="G4">
-        <v>-0.0496027248591865</v>
+        <v>-0.03953733752144169</v>
       </c>
       <c r="H4">
-        <v>-0.05108360501006223</v>
+        <v>-0.03678323304295838</v>
       </c>
       <c r="I4">
-        <v>-0.05521983284491666</v>
+        <v>-0.04229144243594202</v>
       </c>
       <c r="J4">
-        <v>-0.05789412019961462</v>
+        <v>-0.03678323304295838</v>
       </c>
       <c r="K4">
-        <v>-0.06223214360517372</v>
+        <v>-0.03953733752144171</v>
       </c>
       <c r="L4">
-        <v>-0.053969833108918</v>
+        <v>-0.03678323304295838</v>
       </c>
       <c r="M4">
-        <v>-0.05295792837463049</v>
+        <v>-0.03580469998043521</v>
       </c>
       <c r="N4">
-        <v>-0.04832950077818242</v>
+        <v>-0.03678323444871934</v>
       </c>
       <c r="O4">
-        <v>-0.04941693755733261</v>
+        <v>-0.03402913056109733</v>
       </c>
       <c r="P4">
-        <v>-0.04815092962175508</v>
+        <v>-0.03678323304295839</v>
       </c>
       <c r="Q4">
-        <v>-0.06870287479981499</v>
+        <v>-0.0448640435666187</v>
       </c>
       <c r="R4">
-        <v>-0.05789412019961462</v>
+        <v>-0.03678323304295838</v>
       </c>
       <c r="S4">
-        <v>-0.05923994415678883</v>
+        <v>-0.03156971623841594</v>
       </c>
       <c r="T4">
-        <v>-0.06414276805199576</v>
+        <v>-0.03946473903629654</v>
       </c>
       <c r="U4">
-        <v>-0.05984532844601025</v>
+        <v>-0.03953733752144171</v>
       </c>
       <c r="V4">
-        <v>-0.053969833108918</v>
+        <v>-0.03678323304295838</v>
       </c>
       <c r="W4">
-        <v>-0.0292223569727708</v>
+        <v>-0.04149868835719556</v>
       </c>
       <c r="X4">
-        <v>-0.05934591692540965</v>
+        <v>-0.03837729876702391</v>
       </c>
       <c r="Y4">
-        <v>-0.05217103901527136</v>
+        <v>-0.04229144243594202</v>
       </c>
       <c r="Z4">
-        <v>-0.05977272649113916</v>
+        <v>-0.03946473903629654</v>
       </c>
       <c r="AA4">
-        <v>-0.05492514628444961</v>
+        <v>-0.03501781306471373</v>
       </c>
       <c r="AB4">
-        <v>-0.05097763719814926</v>
+        <v>-0.03402913056109733</v>
       </c>
       <c r="AC4">
-        <v>-0.06528093051285527</v>
+        <v>-0.0421099401760644</v>
       </c>
       <c r="AD4">
-        <v>-0.05634785313838905</v>
+        <v>-0.03946473903629654</v>
       </c>
       <c r="AE4">
-        <v>-0.05264722872183507</v>
+        <v>-0.03628381895796075</v>
       </c>
       <c r="AF4">
-        <v>-0.05169192242766992</v>
+        <v>-0.03382440060601214</v>
       </c>
       <c r="AG4">
-        <v>-0.05217103901527136</v>
+        <v>-0.03406250063332684</v>
+      </c>
+      <c r="AH4">
+        <v>-2.032818358088662E-12</v>
+      </c>
+      <c r="AI4">
+        <v>-0.03402913056109733</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.03678323304295838</v>
+      </c>
+      <c r="AK4">
+        <v>-0.03402913056109733</v>
+      </c>
+      <c r="AL4">
+        <v>-0.03569579529420996</v>
+      </c>
+      <c r="AM4">
+        <v>-0.03402913056109731</v>
+      </c>
+      <c r="AN4">
+        <v>-0.03678323304295838</v>
+      </c>
+      <c r="AO4">
+        <v>-0.03569579529420996</v>
+      </c>
+      <c r="AP4">
+        <v>-0.0301149890677044</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.03498444078193542</v>
+      </c>
+      <c r="AR4">
+        <v>-0.03678323444871947</v>
+      </c>
+      <c r="AS4">
+        <v>-0.03402913056109733</v>
+      </c>
+      <c r="AT4">
+        <v>-0.03402913056109733</v>
+      </c>
+      <c r="AU4">
+        <v>-0.03138392664344678</v>
+      </c>
+      <c r="AV4">
+        <v>-0.03402913056109731</v>
+      </c>
+      <c r="AW4">
+        <v>-0.03127502958479712</v>
+      </c>
+      <c r="AX4">
+        <v>-0.0421099401760644</v>
+      </c>
+      <c r="AY4">
+        <v>-0.03628381895796075</v>
+      </c>
+      <c r="AZ4">
+        <v>-0.02881561324862167</v>
+      </c>
+      <c r="BA4">
+        <v>-0.03402913056109731</v>
+      </c>
+      <c r="BB4">
+        <v>-0.0355172238075527</v>
+      </c>
+      <c r="BC4">
+        <v>-0.03402913056109733</v>
+      </c>
+      <c r="BD4">
+        <v>-0.03993799621027839</v>
+      </c>
+      <c r="BE4">
+        <v>-0.03530235312982456</v>
+      </c>
+      <c r="BF4">
+        <v>-0.03257440260897294</v>
+      </c>
+      <c r="BG4">
+        <v>-0.03755704376738394</v>
+      </c>
+      <c r="BH4">
+        <v>-0.03402913056109733</v>
+      </c>
+      <c r="BI4">
+        <v>-0.0301149890677044</v>
+      </c>
+      <c r="BJ4">
+        <v>-0.04210994017606437</v>
+      </c>
+      <c r="BK4">
+        <v>-0.03935583428008678</v>
+      </c>
+      <c r="BL4">
+        <v>-0.03305059474999122</v>
+      </c>
+      <c r="BM4">
+        <v>-0.03402913056109733</v>
+      </c>
+      <c r="BN4">
+        <v>-0.03395652942125594</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:66">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>1.650938862211912</v>
+        <v>1.301190464133939</v>
       </c>
       <c r="C5">
-        <v>1.654837673254678</v>
+        <v>1.284126085511635</v>
       </c>
       <c r="D5">
-        <v>1.650457258344497</v>
+        <v>1.301190464133939</v>
       </c>
       <c r="E5">
-        <v>1.661266232908313</v>
+        <v>1.307961306008625</v>
       </c>
       <c r="F5">
-        <v>1.718810875628049</v>
+        <v>1.318823056726482</v>
       </c>
       <c r="G5">
-        <v>1.647305198394757</v>
+        <v>1.31179653633925</v>
       </c>
       <c r="H5">
-        <v>1.620140695864461</v>
+        <v>1.307961306008625</v>
       </c>
       <c r="I5">
-        <v>1.684595510268091</v>
+        <v>1.345631767849647</v>
       </c>
       <c r="J5">
-        <v>1.66034902713565</v>
+        <v>1.307961306008625</v>
       </c>
       <c r="K5">
-        <v>1.728720240190975</v>
+        <v>1.34179653633925</v>
       </c>
       <c r="L5">
-        <v>1.657214558747856</v>
+        <v>1.307961306008625</v>
       </c>
       <c r="M5">
-        <v>1.653613368233692</v>
+        <v>1.30520427843189</v>
       </c>
       <c r="N5">
-        <v>1.586305466447148</v>
+        <v>1.287961310404837</v>
       </c>
       <c r="O5">
-        <v>1.648682360014891</v>
+        <v>1.304126082380137</v>
       </c>
       <c r="P5">
-        <v>1.646007848222084</v>
+        <v>1.317961306008625</v>
       </c>
       <c r="Q5">
-        <v>1.80391368431383</v>
+        <v>1.380150166744007</v>
       </c>
       <c r="R5">
-        <v>1.66034902713565</v>
+        <v>1.307961306008625</v>
       </c>
       <c r="S5">
-        <v>1.721105248931117</v>
+        <v>1.308533553781205</v>
       </c>
       <c r="T5">
-        <v>1.726996755947908</v>
+        <v>1.342099573786307</v>
       </c>
       <c r="U5">
-        <v>1.72282467573123</v>
+        <v>1.34179653633925</v>
       </c>
       <c r="V5">
-        <v>1.657214558747856</v>
+        <v>1.307961306008625</v>
       </c>
       <c r="W5">
-        <v>1.726513796579592</v>
+        <v>1.371497552853369</v>
       </c>
       <c r="X5">
-        <v>1.721646382334142</v>
+        <v>1.339722670327016</v>
       </c>
       <c r="Y5">
-        <v>1.65251758165084</v>
+        <v>1.345631767849647</v>
       </c>
       <c r="Z5">
-        <v>1.723127702985843</v>
+        <v>1.342099573786307</v>
       </c>
       <c r="AA5">
-        <v>1.656352819819057</v>
+        <v>1.304108499065209</v>
       </c>
       <c r="AB5">
-        <v>1.649599578040088</v>
+        <v>1.304126082380137</v>
       </c>
       <c r="AC5">
-        <v>1.800798148894162</v>
+        <v>1.376314939510529</v>
       </c>
       <c r="AD5">
-        <v>1.720992963763147</v>
+        <v>1.342099573786307</v>
       </c>
       <c r="AE5">
-        <v>1.650077103183619</v>
+        <v>1.306783004859986</v>
       </c>
       <c r="AF5">
-        <v>1.650938862211912</v>
+        <v>1.301190464133939</v>
       </c>
       <c r="AG5">
-        <v>1.65251758165084</v>
+        <v>1.304970239978541</v>
+      </c>
+      <c r="AH5">
+        <v>32.2500000185039</v>
+      </c>
+      <c r="AI5">
+        <v>1.304126082380137</v>
+      </c>
+      <c r="AJ5">
+        <v>1.307961306008625</v>
+      </c>
+      <c r="AK5">
+        <v>1.304126082380137</v>
+      </c>
+      <c r="AL5">
+        <v>1.305584409471098</v>
+      </c>
+      <c r="AM5">
+        <v>1.314126082380137</v>
+      </c>
+      <c r="AN5">
+        <v>1.307961306008625</v>
+      </c>
+      <c r="AO5">
+        <v>1.305584409471098</v>
+      </c>
+      <c r="AP5">
+        <v>1.298216990837261</v>
+      </c>
+      <c r="AQ5">
+        <v>1.303264334448783</v>
+      </c>
+      <c r="AR5">
+        <v>1.337961310404838</v>
+      </c>
+      <c r="AS5">
+        <v>1.304126082380137</v>
+      </c>
+      <c r="AT5">
+        <v>1.304126082380137</v>
+      </c>
+      <c r="AU5">
+        <v>1.259910708719286</v>
+      </c>
+      <c r="AV5">
+        <v>1.314126082380137</v>
+      </c>
+      <c r="AW5">
+        <v>1.300290862222063</v>
+      </c>
+      <c r="AX5">
+        <v>1.376314939510529</v>
+      </c>
+      <c r="AY5">
+        <v>1.306783004859986</v>
+      </c>
+      <c r="AZ5">
+        <v>1.304698327892043</v>
+      </c>
+      <c r="BA5">
+        <v>1.314126082380137</v>
+      </c>
+      <c r="BB5">
+        <v>1.335286790653917</v>
+      </c>
+      <c r="BC5">
+        <v>1.304126082380137</v>
+      </c>
+      <c r="BD5">
+        <v>1.370580357321913</v>
+      </c>
+      <c r="BE5">
+        <v>1.335125809211198</v>
+      </c>
+      <c r="BF5">
+        <v>1.303809517573486</v>
+      </c>
+      <c r="BG5">
+        <v>1.337782738276521</v>
+      </c>
+      <c r="BH5">
+        <v>1.304126082380137</v>
+      </c>
+      <c r="BI5">
+        <v>1.298216990837261</v>
+      </c>
+      <c r="BJ5">
+        <v>1.386314939510529</v>
+      </c>
+      <c r="BK5">
+        <v>1.352479705233747</v>
+      </c>
+      <c r="BL5">
+        <v>1.301369046803745</v>
+      </c>
+      <c r="BM5">
+        <v>1.304126082380137</v>
+      </c>
+      <c r="BN5">
+        <v>1.314429112484277</v>
       </c>
     </row>
   </sheetData>
